--- a/Desarrollo/BF/Gestión/BF-CP.xlsx
+++ b/Desarrollo/BF/Gestión/BF-CP.xlsx
@@ -8,15 +8,15 @@
     <sheet state="hidden" name="Ideas de proyecto" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_BC7CD42A_D0AA_427F_AC1E_7568B92BD670_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DB86D3C0_0DA4_463F_991E_E37272018C8C_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF1E801D_D203_41E5_9F78_12BC50862A1D_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_750D806C_93F1_4286_B04D_3841A1501A9B_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_57571729_D998_47FF_84A4_37DFE00020E3_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F0AA34F2_93DB_4A4E_BE8C_57081FF25F1F_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BC7CD42A-D0AA-427F-AC1E-7568B92BD670}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DB86D3C0-0DA4-463F-991E-E37272018C8C}" name="Filtro 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF1E801D-D203-41E5-9F78-12BC50862A1D}" name="Filtro 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F0AA34F2-93DB-4A4E-BE8C-57081FF25F1F}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{57571729-D998-47FF-84A4-37DFE00020E3}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{750D806C-93F1-4286-B04D-3841A1501A9B}" name="Filtro 3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1543,7 +1543,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1689,6 +1689,9 @@
     <xf borderId="18" fillId="4" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="18" fillId="4" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="12" fillId="5" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -1701,6 +1704,9 @@
     </xf>
     <xf borderId="15" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="17" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -2946,7 +2952,7 @@
       <c r="G34" s="46">
         <v>45435.0</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H34" s="57">
         <v>0.0</v>
       </c>
       <c r="I34" s="56" t="str">
@@ -3072,7 +3078,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="58" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="44" t="s">
@@ -3081,7 +3087,7 @@
       <c r="D39" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="59" t="s">
         <v>110</v>
       </c>
       <c r="F39" s="29">
@@ -3101,7 +3107,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="60" t="s">
         <v>111</v>
       </c>
       <c r="C40" s="44" t="s">
@@ -3255,23 +3261,23 @@
       <c r="A45" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="61"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="51">
-        <v>45425.0</v>
-      </c>
-      <c r="G45" s="64">
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65">
+        <v>45431.0</v>
+      </c>
+      <c r="G45" s="66">
         <v>45450.0</v>
       </c>
-      <c r="H45" s="65">
+      <c r="H45" s="67">
         <f>AVERAGE(H31:H44)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="65" t="str">
+      <c r="I45" s="67" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H45, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="68" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="42" t="s">
@@ -3313,7 +3319,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="39"/>
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="55" t="s">
@@ -3343,7 +3349,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="39"/>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="69" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="55" t="s">
@@ -3372,7 +3378,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="39"/>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="69" t="s">
         <v>129</v>
       </c>
       <c r="C49" s="55" t="s">
@@ -3401,7 +3407,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="39"/>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C50" s="55" t="s">
@@ -3430,7 +3436,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="39"/>
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="69" t="s">
         <v>131</v>
       </c>
       <c r="C51" s="55" t="s">
@@ -3459,7 +3465,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="39"/>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="69" t="s">
         <v>132</v>
       </c>
       <c r="C52" s="55" t="s">
@@ -3488,7 +3494,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="39"/>
-      <c r="B53" s="67" t="s">
+      <c r="B53" s="69" t="s">
         <v>133</v>
       </c>
       <c r="C53" s="55" t="s">
@@ -3517,7 +3523,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="39"/>
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="69" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="55" t="s">
@@ -3546,7 +3552,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="70" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="44" t="s">
@@ -3555,7 +3561,7 @@
       <c r="D55" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="59" t="s">
         <v>110</v>
       </c>
       <c r="F55" s="45">
@@ -3575,7 +3581,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
-      <c r="B56" s="69" t="s">
+      <c r="B56" s="71" t="s">
         <v>136</v>
       </c>
       <c r="C56" s="44" t="s">
@@ -3608,7 +3614,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="68" t="s">
         <v>139</v>
       </c>
       <c r="C57" s="42" t="s">
@@ -3638,7 +3644,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="68" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="42" t="s">
@@ -3668,7 +3674,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="68" t="s">
         <v>143</v>
       </c>
       <c r="C59" s="42" t="s">
@@ -3698,7 +3704,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="68" t="s">
         <v>147</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -3736,7 +3742,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="68" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="42" t="s">
@@ -3774,7 +3780,7 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="68" t="s">
         <v>91</v>
       </c>
       <c r="C62" s="42" t="s">
@@ -3804,10 +3810,10 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="73" t="s">
         <v>155</v>
       </c>
       <c r="D63" s="26" t="s">
@@ -3839,23 +3845,23 @@
       <c r="A64" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="74" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="75"/>
-      <c r="F64" s="76">
+      <c r="C64" s="75"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78">
         <v>45451.0</v>
       </c>
-      <c r="G64" s="77">
+      <c r="G64" s="79">
         <v>45479.0</v>
       </c>
-      <c r="H64" s="78">
+      <c r="H64" s="80">
         <f>AVERAGE(H46:H63)</f>
         <v>0</v>
       </c>
-      <c r="I64" s="78" t="str">
+      <c r="I64" s="80" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H64, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3863,21 +3869,21 @@
       <c r="K64" s="38"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="79"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="80"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
       <c r="J65" s="31" t="s">
         <v>160</v>
       </c>
       <c r="K65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="81"/>
+      <c r="B66" s="83"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
@@ -4003,7 +4009,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
-      <c r="K101" s="82">
+      <c r="K101" s="84">
         <v>1.0</v>
       </c>
     </row>
@@ -4012,7 +4018,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
-      <c r="K102" s="82">
+      <c r="K102" s="84">
         <v>2.0</v>
       </c>
     </row>
@@ -4021,7 +4027,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
-      <c r="K103" s="82">
+      <c r="K103" s="84">
         <v>3.0</v>
       </c>
     </row>
@@ -4030,7 +4036,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
-      <c r="K104" s="82">
+      <c r="K104" s="84">
         <v>4.0</v>
       </c>
     </row>
@@ -4039,7 +4045,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
-      <c r="K105" s="82">
+      <c r="K105" s="84">
         <v>1.0</v>
       </c>
     </row>
@@ -4048,7 +4054,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
-      <c r="K106" s="82">
+      <c r="K106" s="84">
         <v>2.0</v>
       </c>
     </row>
@@ -4057,7 +4063,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
-      <c r="K107" s="82">
+      <c r="K107" s="84">
         <v>3.0</v>
       </c>
     </row>
@@ -4066,7 +4072,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
-      <c r="K108" s="82">
+      <c r="K108" s="84">
         <v>1.0</v>
       </c>
     </row>
@@ -4075,7 +4081,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
-      <c r="K109" s="82">
+      <c r="K109" s="84">
         <v>2.0</v>
       </c>
     </row>
@@ -4084,7 +4090,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
-      <c r="K110" s="82">
+      <c r="K110" s="84">
         <v>3.0</v>
       </c>
     </row>
@@ -4093,7 +4099,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
-      <c r="K111" s="82">
+      <c r="K111" s="84">
         <v>1.0</v>
       </c>
     </row>
@@ -4102,7 +4108,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
-      <c r="K112" s="82">
+      <c r="K112" s="84">
         <v>2.0</v>
       </c>
     </row>
@@ -5778,13 +5784,13 @@
     <row r="1022" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AF1E801D-D203-41E5-9F78-12BC50862A1D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{750D806C-93F1-4286-B04D-3841A1501A9B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64"/>
     </customSheetView>
-    <customSheetView guid="{BC7CD42A-D0AA-427F-AC1E-7568B92BD670}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F0AA34F2-93DB-4A4E-BE8C-57081FF25F1F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$16"/>
     </customSheetView>
-    <customSheetView guid="{DB86D3C0-0DA4-463F-991E-E37272018C8C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{57571729-D998-47FF-84A4-37DFE00020E3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64">
         <filterColumn colId="1">
           <filters>
@@ -5840,86 +5846,86 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>161</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="86" t="s">
         <v>162</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="88" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="90" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="90" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="90" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="90" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="90" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="90" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="93" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="95" t="s">
         <v>180</v>
       </c>
     </row>
@@ -6936,1106 +6942,1106 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="J2" s="96" t="str">
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="J2" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(B:B)"),"#REF!")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94" t="s">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="J3" s="96"/>
-      <c r="L3" s="96" t="str">
+      <c r="H3" s="97"/>
+      <c r="J3" s="98"/>
+      <c r="L3" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(J:J)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="J4" s="96"/>
-      <c r="L4" s="96" t="str">
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="J4" s="98"/>
+      <c r="L4" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"#REF!")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97" t="s">
+      <c r="F5" s="99"/>
+      <c r="G5" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="L5" s="96" t="str">
+      <c r="J5" s="98"/>
+      <c r="L5" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Masias /DF y Challanca/DF")</f>
         <v>Masias /DF y Challanca/DF</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="J6" s="96"/>
-      <c r="L6" s="96" t="str">
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="J6" s="98"/>
+      <c r="L6" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Challanca/DF")</f>
         <v>Challanca/DF</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H7" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="J7" s="96"/>
-      <c r="L7" s="96" t="str">
+      <c r="J7" s="98"/>
+      <c r="L7" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JP")</f>
         <v>JP</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="J8" s="96"/>
-      <c r="L8" s="96" t="str">
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="J8" s="98"/>
+      <c r="L8" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DB")</f>
         <v>DB</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="J9" s="96"/>
-      <c r="L9" s="96" t="str">
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="J9" s="98"/>
+      <c r="L9" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AS")</f>
         <v>AS</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="J10" s="96"/>
-      <c r="L10" s="96" t="str">
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="J10" s="98"/>
+      <c r="L10" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ADB")</f>
         <v>ADB</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="J11" s="96" t="str">
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="J11" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(C:C)"),"#REF!")</f>
         <v>#REF!</v>
       </c>
-      <c r="L11" s="96" t="str">
+      <c r="L11" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"T")</f>
         <v>T</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="J12" s="96"/>
-      <c r="L12" s="96" t="str">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="J12" s="98"/>
+      <c r="L12" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
         <v>A</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97" t="s">
+      <c r="D13" s="99"/>
+      <c r="E13" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="97" t="s">
+      <c r="H13" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="L13" s="96" t="str">
+      <c r="J13" s="98"/>
+      <c r="L13" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DF")</f>
         <v>DF</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="J14" s="96"/>
-      <c r="L14" s="96" t="str">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="J14" s="98"/>
+      <c r="L14" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Jefe de Proyecto (JP)")</f>
         <v>Jefe de Proyecto (JP)</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="J15" s="96"/>
-      <c r="L15" s="96" t="str">
+      <c r="D15" s="99"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="J15" s="98"/>
+      <c r="L15" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecto de Software (AS)")</f>
         <v>Arquitecto de Software (AS)</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="J16" s="96"/>
-      <c r="L16" s="96" t="str">
+      <c r="D16" s="99"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="J16" s="98"/>
+      <c r="L16" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista Base de Datos (ABD)")</f>
         <v>Analista Base de Datos (ABD)</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
+      <c r="B17" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="J17" s="96"/>
-      <c r="L17" s="96" t="str">
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="J17" s="98"/>
+      <c r="L17" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tester")</f>
         <v>Tester</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97" t="s">
+      <c r="D18" s="99"/>
+      <c r="E18" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="J18" s="96"/>
-      <c r="L18" s="96" t="str">
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="J18" s="98"/>
+      <c r="L18" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista funcional (AF)")</f>
         <v>Analista funcional (AF)</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97" t="s">
+      <c r="D19" s="99"/>
+      <c r="E19" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="J19" s="96"/>
-      <c r="L19" s="96" t="str">
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="J19" s="98"/>
+      <c r="L19" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseñador UX")</f>
         <v>Diseñador UX</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97" t="s">
+      <c r="D20" s="99"/>
+      <c r="E20" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="J20" s="96"/>
-      <c r="L20" s="96" t="str">
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="J20" s="98"/>
+      <c r="L20" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Desarrollador Front-End (DF)")</f>
         <v>Desarrollador Front-End (DF)</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="J21" s="96"/>
-      <c r="L21" s="96" t="str">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="J21" s="98"/>
+      <c r="L21" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista QA")</f>
         <v>Analista QA</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="J22" s="96"/>
-      <c r="L22" s="96" t="str">
+      <c r="D22" s="99"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="J22" s="98"/>
+      <c r="L22" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Desarrollador Back-End (DB)")</f>
         <v>Desarrollador Back-End (DB)</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="J23" s="96"/>
-      <c r="L23" s="96" t="str">
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="J23" s="98"/>
+      <c r="L23" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista programador (AP)")</f>
         <v>Analista programador (AP)</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="J24" s="96" t="str">
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="J24" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(E:E)"),"#REF!")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97" t="s">
+      <c r="D25" s="99"/>
+      <c r="E25" s="99" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="99" t="s">
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="101" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="99" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="99" t="s">
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="101" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="99" t="s">
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="99" t="s">
+      <c r="L27" s="101" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="99" t="s">
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="101" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="99" t="s">
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97" t="s">
+      <c r="D30" s="99"/>
+      <c r="E30" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="99" t="s">
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="L30" s="99" t="s">
+      <c r="L30" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="97" t="s">
+      <c r="B31" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97" t="s">
+      <c r="D31" s="99"/>
+      <c r="E31" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97" t="s">
+      <c r="F31" s="99"/>
+      <c r="G31" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="H31" s="98"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="99" t="s">
+      <c r="H31" s="100"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="101" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="99" t="s">
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="101" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="J33" s="96" t="str">
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="J33" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(G:G)"),"#REF!")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="J34" s="96"/>
-      <c r="K34" s="99" t="s">
+      <c r="J34" s="98"/>
+      <c r="K34" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="99" t="s">
+      <c r="L34" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="J35" s="96"/>
-      <c r="K35" s="99" t="s">
+      <c r="J35" s="98"/>
+      <c r="K35" s="101" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="J36" s="96"/>
-      <c r="K36" s="99" t="s">
+      <c r="J36" s="98"/>
+      <c r="K36" s="101" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="J37" s="96"/>
-      <c r="K37" s="99" t="s">
+      <c r="J37" s="98"/>
+      <c r="K37" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="J38" s="96" t="str">
+      <c r="J38" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(H:H)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="J39" s="96" t="str">
+      <c r="J39" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Masias /DF y Challanca/DF")</f>
         <v>Masias /DF y Challanca/DF</v>
       </c>
-      <c r="K39" s="99" t="s">
+      <c r="K39" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="99" t="s">
+      <c r="L39" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="J40" s="96" t="str">
+      <c r="J40" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Challanca/DF")</f>
         <v>Challanca/DF</v>
       </c>
-      <c r="K40" s="99" t="s">
+      <c r="K40" s="101" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="J41" s="96" t="str">
+      <c r="J41" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"JP")</f>
         <v>JP</v>
       </c>
-      <c r="K41" s="96" t="str">
+      <c r="K41" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(L25:L40)"),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="J42" s="96" t="str">
+      <c r="J42" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DB")</f>
         <v>DB</v>
       </c>
-      <c r="K42" s="96" t="str">
+      <c r="K42" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lequeleque/AS")</f>
         <v>Lequeleque/AS</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="J43" s="96" t="str">
+      <c r="J43" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AS")</f>
         <v>AS</v>
       </c>
-      <c r="K43" s="96" t="str">
+      <c r="K43" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Challanca/DF")</f>
         <v>Challanca/DF</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="J44" s="96" t="str">
+      <c r="J44" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ADB")</f>
         <v>ADB</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="J45" s="96" t="str">
+      <c r="J45" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"T")</f>
         <v>T</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="E46" s="100" t="s">
+      <c r="E46" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="101"/>
-      <c r="J46" s="96" t="str">
+      <c r="F46" s="103"/>
+      <c r="J46" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
         <v>A</v>
       </c>
-      <c r="K46" s="96" t="str">
+      <c r="K46" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(K25:K43)"),"Medina/A")</f>
         <v>Medina/A</v>
       </c>
-      <c r="N46" s="99" t="s">
+      <c r="N46" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O46" s="99" t="s">
+      <c r="O46" s="101" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="104" t="s">
         <v>203</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="J47" s="96" t="str">
+      <c r="J47" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"DF")</f>
         <v>DF</v>
       </c>
-      <c r="K47" s="96" t="str">
+      <c r="K47" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Apaza G./JP")</f>
         <v>Apaza G./JP</v>
       </c>
-      <c r="N47" s="99" t="s">
+      <c r="N47" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="O47" s="99" t="s">
+      <c r="O47" s="101" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="E48" s="103" t="s">
+      <c r="E48" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="104" t="s">
+      <c r="F48" s="106" t="s">
         <v>164</v>
       </c>
-      <c r="K48" s="96" t="str">
+      <c r="K48" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Challanca/DF")</f>
         <v>Challanca/DF</v>
       </c>
-      <c r="N48" s="99" t="s">
+      <c r="N48" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="O48" s="99" t="s">
+      <c r="O48" s="101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="E49" s="105" t="s">
+      <c r="E49" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="106" t="s">
+      <c r="F49" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="K49" s="96" t="str">
+      <c r="K49" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Lequeleque/AS")</f>
         <v>Lequeleque/AS</v>
       </c>
-      <c r="N49" s="82" t="s">
+      <c r="N49" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="O49" s="82" t="s">
+      <c r="O49" s="84" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="E50" s="105" t="s">
+      <c r="E50" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="106" t="s">
+      <c r="F50" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="K50" s="96" t="str">
+      <c r="K50" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Vise D./ABD")</f>
         <v>Vise D./ABD</v>
       </c>
-      <c r="N50" s="99" t="s">
+      <c r="N50" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="O50" s="99" t="s">
+      <c r="O50" s="101" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="E51" s="105" t="s">
+      <c r="E51" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="F51" s="106" t="s">
+      <c r="F51" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="K51" s="96" t="str">
+      <c r="K51" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Masías C./T")</f>
         <v>Masías C./T</v>
       </c>
-      <c r="N51" s="99" t="s">
+      <c r="N51" s="101" t="s">
         <v>214</v>
       </c>
-      <c r="O51" s="99" t="s">
+      <c r="O51" s="101" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="E52" s="107" t="s">
+      <c r="E52" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="F52" s="106" t="s">
+      <c r="F52" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="K52" s="96"/>
-      <c r="N52" s="99" t="s">
+      <c r="K52" s="98"/>
+      <c r="N52" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="O52" s="99" t="s">
+      <c r="O52" s="101" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="E53" s="105" t="s">
+      <c r="E53" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="F53" s="106" t="s">
+      <c r="F53" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="K53" s="96" t="str">
+      <c r="K53" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Masias C. /DF")</f>
         <v>Masias C. /DF</v>
       </c>
-      <c r="N53" s="99" t="s">
+      <c r="N53" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="O53" s="99" t="s">
+      <c r="O53" s="101" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="E54" s="105" t="s">
+      <c r="E54" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="106" t="s">
+      <c r="F54" s="108" t="s">
         <v>225</v>
       </c>
-      <c r="K54" s="96" t="str">
+      <c r="K54" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Masias /DF")</f>
         <v>Masias /DF</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="E55" s="108" t="s">
+      <c r="E55" s="110" t="s">
         <v>226</v>
       </c>
-      <c r="F55" s="109" t="s">
+      <c r="F55" s="111" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="E58" s="83" t="s">
+      <c r="E58" s="85" t="s">
         <v>161</v>
       </c>
       <c r="F58" s="14"/>
-      <c r="G58" s="83"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="14"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="E59" s="84" t="s">
+      <c r="E59" s="86" t="s">
         <v>162</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="84"/>
+      <c r="G59" s="86"/>
       <c r="H59" s="4"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="E60" s="85" t="s">
+      <c r="E60" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="86" t="s">
+      <c r="F60" s="88" t="s">
         <v>164</v>
       </c>
-      <c r="G60" s="85"/>
-      <c r="H60" s="86"/>
+      <c r="G60" s="87"/>
+      <c r="H60" s="88"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="E61" s="87" t="s">
+      <c r="E61" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="88" t="s">
+      <c r="F61" s="90" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="88" t="s">
+      <c r="G61" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="H61" s="88" t="s">
+      <c r="H61" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="I61" s="96" t="str">
+      <c r="I61" s="98" t="str">
         <f t="shared" ref="I61:I72" si="1">VLOOKUP(H61, $N$46:$O$53, 2, FALSE)</f>
         <v>Apaza G.</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="E62" s="87" t="s">
+      <c r="E62" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="F62" s="88" t="s">
+      <c r="F62" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="G62" s="88" t="s">
+      <c r="G62" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="H62" s="88" t="s">
+      <c r="H62" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="I62" s="96" t="str">
+      <c r="I62" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Castro</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="E63" s="87" t="s">
+      <c r="E63" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="F63" s="88" t="s">
+      <c r="F63" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="G63" s="88" t="s">
+      <c r="G63" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="88" t="s">
+      <c r="H63" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="I63" s="96" t="str">
+      <c r="I63" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Lequeleque</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="E64" s="87" t="s">
+      <c r="E64" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="F64" s="88" t="s">
+      <c r="F64" s="90" t="s">
         <v>234</v>
       </c>
-      <c r="G64" s="88" t="s">
+      <c r="G64" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="H64" s="88" t="s">
+      <c r="H64" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="I64" s="96" t="str">
+      <c r="I64" s="98" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="F65" s="88" t="s">
+      <c r="F65" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="88" t="s">
+      <c r="G65" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="H65" s="88" t="s">
+      <c r="H65" s="90" t="s">
         <v>210</v>
       </c>
-      <c r="I65" s="96" t="str">
+      <c r="I65" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Castro</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="E66" s="89" t="s">
+      <c r="E66" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="F66" s="88" t="s">
+      <c r="F66" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="G66" s="88" t="s">
+      <c r="G66" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="H66" s="88" t="s">
+      <c r="H66" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="I66" s="96" t="str">
+      <c r="I66" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Masias</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="E67" s="87" t="s">
+      <c r="E67" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="F67" s="88" t="s">
+      <c r="F67" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="88" t="s">
+      <c r="G67" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="H67" s="88" t="s">
+      <c r="H67" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="I67" s="96" t="str">
+      <c r="I67" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Medina</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="F68" s="88" t="s">
+      <c r="F68" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="G68" s="88" t="s">
+      <c r="G68" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="H68" s="88" t="s">
+      <c r="H68" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="I68" s="96" t="str">
+      <c r="I68" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Medina</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="E69" s="87" t="s">
+      <c r="E69" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="F69" s="88" t="s">
+      <c r="F69" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="G69" s="88" t="s">
+      <c r="G69" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="96" t="str">
+      <c r="H69" s="90"/>
+      <c r="I69" s="98" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="F70" s="88" t="s">
+      <c r="F70" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="G70" s="88" t="s">
+      <c r="G70" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="H70" s="88" t="s">
+      <c r="H70" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="I70" s="96" t="str">
+      <c r="I70" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Challanca</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="E71" s="90" t="s">
+      <c r="E71" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="F71" s="91" t="s">
+      <c r="F71" s="93" t="s">
         <v>246</v>
       </c>
-      <c r="G71" s="91" t="s">
+      <c r="G71" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="H71" s="91" t="s">
+      <c r="H71" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="I71" s="96" t="str">
+      <c r="I71" s="98" t="str">
         <f t="shared" si="1"/>
         <v>Challanca</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="E72" s="92" t="s">
+      <c r="E72" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="G72" s="93" t="s">
+      <c r="G72" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="H72" s="93"/>
-      <c r="I72" s="96" t="str">
+      <c r="H72" s="95"/>
+      <c r="I72" s="98" t="str">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
@@ -8043,203 +8049,203 @@
     <row r="73" ht="15.75" customHeight="1"/>
     <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="J75" s="88" t="s">
+      <c r="J75" s="90" t="s">
         <v>209</v>
       </c>
-      <c r="L75" s="96" t="str">
+      <c r="L75" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(J75:J88)"),"Jefe de Proyecto (JP)")</f>
         <v>Jefe de Proyecto (JP)</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="J76" s="88" t="s">
+      <c r="J76" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="L76" s="96" t="str">
+      <c r="L76" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Arquitecto de Software (AS)")</f>
         <v>Arquitecto de Software (AS)</v>
       </c>
-      <c r="N76" s="99" t="s">
+      <c r="N76" s="101" t="s">
         <v>229</v>
       </c>
-      <c r="O76" s="99" t="s">
+      <c r="O76" s="101" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="J77" s="88" t="s">
+      <c r="J77" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="L77" s="96" t="str">
+      <c r="L77" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista Base de Datos (ABD)")</f>
         <v>Analista Base de Datos (ABD)</v>
       </c>
-      <c r="N77" s="99" t="s">
+      <c r="N77" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="O77" s="99" t="s">
+      <c r="O77" s="101" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="J78" s="88" t="s">
+      <c r="J78" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="L78" s="96" t="str">
+      <c r="L78" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Tester")</f>
         <v>Tester</v>
       </c>
-      <c r="N78" s="99" t="s">
+      <c r="N78" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="O78" s="99" t="s">
+      <c r="O78" s="101" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="J79" s="88" t="s">
+      <c r="J79" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="L79" s="96" t="str">
+      <c r="L79" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista funcional (AF)")</f>
         <v>Analista funcional (AF)</v>
       </c>
-      <c r="N79" s="82" t="s">
+      <c r="N79" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="O79" s="82" t="s">
+      <c r="O79" s="84" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="J80" s="88" t="s">
+      <c r="J80" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="L80" s="96" t="str">
+      <c r="L80" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Diseñador UX")</f>
         <v>Diseñador UX</v>
       </c>
-      <c r="N80" s="99" t="s">
+      <c r="N80" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="O80" s="99" t="s">
+      <c r="O80" s="101" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="J81" s="91" t="s">
+      <c r="J81" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="L81" s="96" t="str">
+      <c r="L81" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Desarrollador Front-End (DF)")</f>
         <v>Desarrollador Front-End (DF)</v>
       </c>
-      <c r="N81" s="82" t="s">
+      <c r="N81" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="O81" s="82" t="s">
+      <c r="O81" s="84" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="J82" s="93" t="s">
+      <c r="J82" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="L82" s="96" t="str">
+      <c r="L82" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista QA")</f>
         <v>Analista QA</v>
       </c>
-      <c r="N82" s="99" t="s">
+      <c r="N82" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="O82" s="99" t="s">
+      <c r="O82" s="101" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="J83" s="88" t="s">
+      <c r="J83" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="L83" s="96" t="str">
+      <c r="L83" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Desarrollador Back-End (DB)")</f>
         <v>Desarrollador Back-End (DB)</v>
       </c>
-      <c r="N83" s="82" t="s">
+      <c r="N83" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="O83" s="82" t="s">
+      <c r="O83" s="84" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="J84" s="88"/>
-      <c r="L84" s="96"/>
-      <c r="N84" s="99" t="s">
+      <c r="J84" s="90"/>
+      <c r="L84" s="98"/>
+      <c r="N84" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="O84" s="99" t="s">
+      <c r="O84" s="101" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="E85" s="87" t="s">
+      <c r="E85" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J85" s="88" t="s">
+      <c r="J85" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="L85" s="96" t="str">
+      <c r="L85" s="98" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Analista programador (AP)")</f>
         <v>Analista programador (AP)</v>
       </c>
-      <c r="N85" s="99" t="s">
+      <c r="N85" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O85" s="99" t="s">
+      <c r="O85" s="101" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="E86" s="87" t="s">
+      <c r="E86" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="J86" s="88"/>
+      <c r="J86" s="90"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="E87" s="87" t="s">
+      <c r="E87" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="J87" s="88" t="s">
+      <c r="J87" s="90" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="E88" s="89" t="s">
+      <c r="E88" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="J88" s="88" t="s">
+      <c r="J88" s="90" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="E89" s="87" t="s">
+      <c r="E89" s="89" t="s">
         <v>238</v>
       </c>
-      <c r="J89" s="91"/>
+      <c r="J89" s="93"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="E90" s="87" t="s">
+      <c r="E90" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="J90" s="93"/>
+      <c r="J90" s="95"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="E91" s="90" t="s">
+      <c r="E91" s="92" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="E92" s="92" t="s">
+      <c r="E92" s="94" t="s">
         <v>248</v>
       </c>
     </row>
@@ -8265,107 +8271,107 @@
     <row r="112" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="95" t="s">
+      <c r="B114" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="C114" s="82" t="s">
+      <c r="C114" s="84" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="97" t="s">
         <v>264</v>
       </c>
-      <c r="C115" s="82" t="s">
+      <c r="C115" s="84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1"/>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="98" t="s">
+      <c r="B117" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C117" s="82" t="s">
+      <c r="C117" s="84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="98" t="s">
+      <c r="B118" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="C118" s="82" t="s">
+      <c r="C118" s="84" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="98" t="s">
+      <c r="B119" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="82" t="s">
+      <c r="C119" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="98" t="s">
+      <c r="B120" s="100" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="82" t="s">
+      <c r="C120" s="84" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="98" t="s">
+      <c r="B121" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="C121" s="82" t="s">
+      <c r="C121" s="84" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="98" t="s">
+      <c r="B122" s="100" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="82" t="s">
+      <c r="C122" s="84" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="98" t="s">
+      <c r="B123" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="C123" s="82" t="s">
+      <c r="C123" s="84" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="98" t="s">
+      <c r="B124" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="C124" s="82" t="s">
+      <c r="C124" s="84" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="98" t="s">
+      <c r="B125" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="C125" s="82" t="s">
+      <c r="C125" s="84" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="98" t="s">
+      <c r="B126" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="C126" s="82" t="s">
+      <c r="C126" s="84" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="98" t="s">
+      <c r="B127" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C127" s="82" t="s">
+      <c r="C127" s="84" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8373,157 +8379,157 @@
       <c r="B128" s="49"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="98" t="s">
+      <c r="B129" s="100" t="s">
         <v>274</v>
       </c>
-      <c r="C129" s="82" t="s">
+      <c r="C129" s="84" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="98" t="s">
+      <c r="B130" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="82" t="s">
+      <c r="C130" s="84" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="98" t="s">
+      <c r="B131" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="C131" s="82" t="s">
+      <c r="C131" s="84" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="98" t="s">
+      <c r="B132" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="C132" s="82" t="s">
+      <c r="C132" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="98" t="s">
+      <c r="B133" s="100" t="s">
         <v>280</v>
       </c>
-      <c r="C133" s="82" t="s">
+      <c r="C133" s="84" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="98" t="s">
+      <c r="B134" s="100" t="s">
         <v>281</v>
       </c>
-      <c r="C134" s="82" t="s">
+      <c r="C134" s="84" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="98" t="s">
+      <c r="B135" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C135" s="82" t="s">
+      <c r="C135" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="62"/>
+      <c r="B136" s="63"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="98" t="s">
+      <c r="B137" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="C137" s="82" t="s">
+      <c r="C137" s="84" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="98" t="s">
+      <c r="B138" s="100" t="s">
         <v>274</v>
       </c>
-      <c r="C138" s="82" t="s">
+      <c r="C138" s="84" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="98" t="s">
+      <c r="B139" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C139" s="82" t="s">
+      <c r="C139" s="84" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="98" t="s">
+      <c r="B140" s="100" t="s">
         <v>285</v>
       </c>
-      <c r="C140" s="82" t="s">
+      <c r="C140" s="84" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="98" t="s">
+      <c r="B141" s="100" t="s">
         <v>287</v>
       </c>
-      <c r="C141" s="82" t="s">
+      <c r="C141" s="84" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="98" t="s">
+      <c r="B142" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C142" s="82" t="s">
+      <c r="C142" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="98" t="s">
+      <c r="B143" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C143" s="82" t="s">
+      <c r="C143" s="84" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="98" t="s">
+      <c r="B144" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="C144" s="82" t="s">
+      <c r="C144" s="84" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="98" t="s">
+      <c r="B145" s="100" t="s">
         <v>291</v>
       </c>
-      <c r="C145" s="82" t="s">
+      <c r="C145" s="84" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="98" t="s">
+      <c r="B146" s="100" t="s">
         <v>293</v>
       </c>
-      <c r="C146" s="82" t="s">
+      <c r="C146" s="84" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="98" t="s">
+      <c r="B147" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C147" s="82" t="s">
+      <c r="C147" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="98" t="s">
+      <c r="B148" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C148" s="82" t="s">
+      <c r="C148" s="84" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Desarrollo/BF/Gestión/BF-CP.xlsx
+++ b/Desarrollo/BF/Gestión/BF-CP.xlsx
@@ -8,15 +8,15 @@
     <sheet state="hidden" name="Ideas de proyecto" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_750D806C_93F1_4286_B04D_3841A1501A9B_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_57571729_D998_47FF_84A4_37DFE00020E3_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F0AA34F2_93DB_4A4E_BE8C_57081FF25F1F_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_929D9260_C6C1_4E11_BE39_CF09C7707A86_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FB89F8EA_A7D9_40AA_B384_5355609E7DC6_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B420B8FC_2E4D_450B_BFFC_2377A9C17799_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F0AA34F2-93DB-4A4E-BE8C-57081FF25F1F}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{57571729-D998-47FF-84A4-37DFE00020E3}" name="Filtro 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{750D806C-93F1-4286-B04D-3841A1501A9B}" name="Filtro 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B420B8FC-2E4D-450B-BFFC-2377A9C17799}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB89F8EA-A7D9-40AA-B384-5355609E7DC6}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{929D9260-C6C1-4E11-BE39-CF09C7707A86}" name="Filtro 3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -1687,10 +1687,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="18" fillId="4" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="12" fillId="5" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="15" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1734,7 +1734,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="27" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="28" fillId="2" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -2771,8 +2771,8 @@
       <c r="G28" s="46">
         <v>45431.0</v>
       </c>
-      <c r="H28" s="30">
-        <v>0.0</v>
+      <c r="H28" s="41">
+        <v>1.0</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H28, {""charttype"", ""bar""; ""max"", 100%})
@@ -2832,7 +2832,7 @@
       </c>
       <c r="H30" s="53">
         <f>AVERAGE(H10:H29)</f>
-        <v>0.905</v>
+        <v>0.955</v>
       </c>
       <c r="I30" s="53" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H30, {""charttype"", ""bar""; ""max"", 100%})
@@ -2865,9 +2865,9 @@
         <v>45435.0</v>
       </c>
       <c r="H31" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I31" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I31" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H31, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -2895,9 +2895,9 @@
         <v>45435.0</v>
       </c>
       <c r="H32" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I32" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I32" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H32, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -2924,9 +2924,9 @@
         <v>45435.0</v>
       </c>
       <c r="H33" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I33" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H33, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -2952,10 +2952,10 @@
       <c r="G34" s="46">
         <v>45435.0</v>
       </c>
-      <c r="H34" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="I34" s="56" t="str">
+      <c r="H34" s="56">
+        <v>1.0</v>
+      </c>
+      <c r="I34" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H34, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -2982,9 +2982,9 @@
         <v>45435.0</v>
       </c>
       <c r="H35" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I35" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I35" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H35, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3011,9 +3011,9 @@
         <v>45435.0</v>
       </c>
       <c r="H36" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I36" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H36, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3039,9 +3039,9 @@
         <v>45435.0</v>
       </c>
       <c r="H37" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I37" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I37" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H37, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3068,9 +3068,9 @@
         <v>45435.0</v>
       </c>
       <c r="H38" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I38" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H38, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3097,9 +3097,9 @@
         <v>45438.0</v>
       </c>
       <c r="H39" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I39" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I39" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H39, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3126,9 +3126,9 @@
         <v>45438.0</v>
       </c>
       <c r="H40" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I40" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H40, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3155,9 +3155,9 @@
         <v>45439.0</v>
       </c>
       <c r="H41" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I41" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I41" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H41, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3188,9 +3188,9 @@
         <v>45446.0</v>
       </c>
       <c r="H42" s="56">
-        <v>0.0</v>
-      </c>
-      <c r="I42" s="56" t="str">
+        <v>1.0</v>
+      </c>
+      <c r="I42" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H42, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3217,10 +3217,10 @@
       <c r="G43" s="29">
         <v>45446.0</v>
       </c>
-      <c r="H43" s="56">
+      <c r="H43" s="57">
         <v>0.0</v>
       </c>
-      <c r="I43" s="56" t="str">
+      <c r="I43" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H43, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3247,10 +3247,10 @@
       <c r="G44" s="29">
         <v>45450.0</v>
       </c>
-      <c r="H44" s="56">
+      <c r="H44" s="57">
         <v>0.0</v>
       </c>
-      <c r="I44" s="56" t="str">
+      <c r="I44" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H44, {""charttype"", ""bar""; ""max"", 100%})
 "),"")</f>
         <v/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H45" s="67">
         <f>AVERAGE(H31:H44)</f>
-        <v>0</v>
+        <v>0.8571428571</v>
       </c>
       <c r="I45" s="67" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H45, {""charttype"", ""bar""; ""max"", 100%})
@@ -3304,8 +3304,8 @@
       <c r="G46" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H46" s="30">
-        <v>0.0</v>
+      <c r="H46" s="41">
+        <v>1.0</v>
       </c>
       <c r="I46" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H46, {""charttype"", ""bar""; ""max"", 100%})
@@ -3337,8 +3337,8 @@
       <c r="G47" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H47" s="30">
-        <v>0.0</v>
+      <c r="H47" s="41">
+        <v>1.0</v>
       </c>
       <c r="I47" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H47, {""charttype"", ""bar""; ""max"", 100%})
@@ -3367,8 +3367,8 @@
       <c r="G48" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H48" s="30">
-        <v>0.0</v>
+      <c r="H48" s="41">
+        <v>1.0</v>
       </c>
       <c r="I48" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H48, {""charttype"", ""bar""; ""max"", 100%})
@@ -3396,8 +3396,8 @@
       <c r="G49" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H49" s="30">
-        <v>0.0</v>
+      <c r="H49" s="41">
+        <v>1.0</v>
       </c>
       <c r="I49" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H49, {""charttype"", ""bar""; ""max"", 100%})
@@ -3425,8 +3425,8 @@
       <c r="G50" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H50" s="30">
-        <v>0.0</v>
+      <c r="H50" s="41">
+        <v>1.0</v>
       </c>
       <c r="I50" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H50, {""charttype"", ""bar""; ""max"", 100%})
@@ -3454,8 +3454,8 @@
       <c r="G51" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H51" s="30">
-        <v>0.0</v>
+      <c r="H51" s="41">
+        <v>1.0</v>
       </c>
       <c r="I51" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H51, {""charttype"", ""bar""; ""max"", 100%})
@@ -3483,8 +3483,8 @@
       <c r="G52" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H52" s="30">
-        <v>0.0</v>
+      <c r="H52" s="41">
+        <v>1.0</v>
       </c>
       <c r="I52" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H52, {""charttype"", ""bar""; ""max"", 100%})
@@ -3512,8 +3512,8 @@
       <c r="G53" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H53" s="30">
-        <v>0.0</v>
+      <c r="H53" s="41">
+        <v>1.0</v>
       </c>
       <c r="I53" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H53, {""charttype"", ""bar""; ""max"", 100%})
@@ -3541,8 +3541,8 @@
       <c r="G54" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H54" s="30">
-        <v>0.0</v>
+      <c r="H54" s="41">
+        <v>1.0</v>
       </c>
       <c r="I54" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H54, {""charttype"", ""bar""; ""max"", 100%})
@@ -3570,8 +3570,8 @@
       <c r="G55" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H55" s="30">
-        <v>0.0</v>
+      <c r="H55" s="41">
+        <v>1.0</v>
       </c>
       <c r="I55" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H55, {""charttype"", ""bar""; ""max"", 100%})
@@ -3599,8 +3599,8 @@
       <c r="G56" s="29">
         <v>45458.0</v>
       </c>
-      <c r="H56" s="30">
-        <v>0.0</v>
+      <c r="H56" s="41">
+        <v>1.0</v>
       </c>
       <c r="I56" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H56, {""charttype"", ""bar""; ""max"", 100%})
@@ -3629,11 +3629,11 @@
       <c r="F57" s="28">
         <v>45458.0</v>
       </c>
-      <c r="G57" s="29">
-        <v>45465.0</v>
-      </c>
-      <c r="H57" s="30">
-        <v>0.0</v>
+      <c r="G57" s="46">
+        <v>45466.0</v>
+      </c>
+      <c r="H57" s="41">
+        <v>1.0</v>
       </c>
       <c r="I57" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H57, {""charttype"", ""bar""; ""max"", 100%})
@@ -3659,11 +3659,11 @@
       <c r="F58" s="28">
         <v>45458.0</v>
       </c>
-      <c r="G58" s="29">
-        <v>45465.0</v>
-      </c>
-      <c r="H58" s="30">
-        <v>0.0</v>
+      <c r="G58" s="46">
+        <v>45466.0</v>
+      </c>
+      <c r="H58" s="41">
+        <v>1.0</v>
       </c>
       <c r="I58" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H58, {""charttype"", ""bar""; ""max"", 100%})
@@ -3689,8 +3689,8 @@
       <c r="F59" s="28">
         <v>45465.0</v>
       </c>
-      <c r="G59" s="29">
-        <v>45472.0</v>
+      <c r="G59" s="46">
+        <v>45466.0</v>
       </c>
       <c r="H59" s="30">
         <v>0.0</v>
@@ -3719,8 +3719,8 @@
       <c r="F60" s="28">
         <v>45465.0</v>
       </c>
-      <c r="G60" s="29">
-        <v>45472.0</v>
+      <c r="G60" s="46">
+        <v>45466.0</v>
       </c>
       <c r="H60" s="30">
         <v>0.0</v>
@@ -3757,8 +3757,8 @@
       <c r="F61" s="28">
         <v>45465.0</v>
       </c>
-      <c r="G61" s="29">
-        <v>45472.0</v>
+      <c r="G61" s="46">
+        <v>45466.0</v>
       </c>
       <c r="H61" s="30">
         <v>0.0</v>
@@ -3792,11 +3792,11 @@
       <c r="E62" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="28">
-        <v>45472.0</v>
-      </c>
-      <c r="G62" s="29">
-        <v>45479.0</v>
+      <c r="F62" s="45">
+        <v>45465.0</v>
+      </c>
+      <c r="G62" s="46">
+        <v>45473.0</v>
       </c>
       <c r="H62" s="30">
         <v>0.0</v>
@@ -3822,11 +3822,11 @@
       <c r="E63" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="28">
-        <v>45472.0</v>
-      </c>
-      <c r="G63" s="29">
-        <v>45479.0</v>
+      <c r="F63" s="45">
+        <v>45466.0</v>
+      </c>
+      <c r="G63" s="46">
+        <v>45473.0</v>
       </c>
       <c r="H63" s="30">
         <v>0.0</v>
@@ -3855,11 +3855,11 @@
         <v>45451.0</v>
       </c>
       <c r="G64" s="79">
-        <v>45479.0</v>
+        <v>45473.0</v>
       </c>
       <c r="H64" s="80">
         <f>AVERAGE(H46:H63)</f>
-        <v>0</v>
+        <v>0.7222222222</v>
       </c>
       <c r="I64" s="80" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H64, {""charttype"", ""bar""; ""max"", 100%})
@@ -5784,13 +5784,13 @@
     <row r="1022" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{750D806C-93F1-4286-B04D-3841A1501A9B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{929D9260-C6C1-4E11-BE39-CF09C7707A86}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64"/>
     </customSheetView>
-    <customSheetView guid="{F0AA34F2-93DB-4A4E-BE8C-57081FF25F1F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B420B8FC-2E4D-450B-BFFC-2377A9C17799}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$16"/>
     </customSheetView>
-    <customSheetView guid="{57571729-D998-47FF-84A4-37DFE00020E3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FB89F8EA-A7D9-40AA-B384-5355609E7DC6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64">
         <filterColumn colId="1">
           <filters>

--- a/Desarrollo/BF/Gestión/BF-CP.xlsx
+++ b/Desarrollo/BF/Gestión/BF-CP.xlsx
@@ -8,15 +8,15 @@
     <sheet state="hidden" name="Ideas de proyecto" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_929D9260_C6C1_4E11_BE39_CF09C7707A86_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FB89F8EA_A7D9_40AA_B384_5355609E7DC6_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B420B8FC_2E4D_450B_BFFC_2377A9C17799_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E8443753_F2FC_4990_A035_9D86299DF228_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_35E16094_53CA_4DC5_89C4_A3FFE3E6B88E_.wvu.FilterData">Cronograma!$B$9:$I$16</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_06D732F8_427B_46BD_8806_0816791D9B99_.wvu.FilterData">Cronograma!$B$9:$I$64</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B420B8FC-2E4D-450B-BFFC-2377A9C17799}" name="Filtro 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB89F8EA-A7D9-40AA-B384-5355609E7DC6}" name="Filtro 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{929D9260-C6C1-4E11-BE39-CF09C7707A86}" name="Filtro 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{35E16094-53CA-4DC5-89C4-A3FFE3E6B88E}" name="Filtro 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E8443753-F2FC-4990-A035-9D86299DF228}" name="Filtro 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{06D732F8-427B-46BD-8806-0816791D9B99}" name="Filtro 3"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -385,7 +385,7 @@
     <t>HU_001 - Modular Información de la Página</t>
   </si>
   <si>
-    <t>Modulo Página Principal</t>
+    <t>Módulo Página Principal</t>
   </si>
   <si>
     <t>Lavaud/DB, Arroyo/DF, Saldaña/DF</t>
@@ -3139,7 +3139,7 @@
       <c r="B41" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -3217,8 +3217,8 @@
       <c r="G43" s="29">
         <v>45446.0</v>
       </c>
-      <c r="H43" s="57">
-        <v>0.0</v>
+      <c r="H43" s="56">
+        <v>1.0</v>
       </c>
       <c r="I43" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H43, {""charttype"", ""bar""; ""max"", 100%})
@@ -3247,8 +3247,8 @@
       <c r="G44" s="29">
         <v>45450.0</v>
       </c>
-      <c r="H44" s="57">
-        <v>0.0</v>
+      <c r="H44" s="56">
+        <v>1.0</v>
       </c>
       <c r="I44" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H44, {""charttype"", ""bar""; ""max"", 100%})
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H45" s="67">
         <f>AVERAGE(H31:H44)</f>
-        <v>0.8571428571</v>
+        <v>1</v>
       </c>
       <c r="I45" s="67" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H45, {""charttype"", ""bar""; ""max"", 100%})
@@ -3692,8 +3692,8 @@
       <c r="G59" s="46">
         <v>45466.0</v>
       </c>
-      <c r="H59" s="30">
-        <v>0.0</v>
+      <c r="H59" s="41">
+        <v>1.0</v>
       </c>
       <c r="I59" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H59, {""charttype"", ""bar""; ""max"", 100%})
@@ -3722,8 +3722,8 @@
       <c r="G60" s="46">
         <v>45466.0</v>
       </c>
-      <c r="H60" s="30">
-        <v>0.0</v>
+      <c r="H60" s="41">
+        <v>1.0</v>
       </c>
       <c r="I60" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H60, {""charttype"", ""bar""; ""max"", 100%})
@@ -3760,8 +3760,8 @@
       <c r="G61" s="46">
         <v>45466.0</v>
       </c>
-      <c r="H61" s="30">
-        <v>0.0</v>
+      <c r="H61" s="41">
+        <v>1.0</v>
       </c>
       <c r="I61" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H61, {""charttype"", ""bar""; ""max"", 100%})
@@ -3798,8 +3798,8 @@
       <c r="G62" s="46">
         <v>45473.0</v>
       </c>
-      <c r="H62" s="30">
-        <v>0.0</v>
+      <c r="H62" s="41">
+        <v>1.0</v>
       </c>
       <c r="I62" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H62, {""charttype"", ""bar""; ""max"", 100%})
@@ -3828,8 +3828,8 @@
       <c r="G63" s="46">
         <v>45473.0</v>
       </c>
-      <c r="H63" s="30">
-        <v>0.0</v>
+      <c r="H63" s="41">
+        <v>1.0</v>
       </c>
       <c r="I63" s="30" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H63, {""charttype"", ""bar""; ""max"", 100%})
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H64" s="80">
         <f>AVERAGE(H46:H63)</f>
-        <v>0.7222222222</v>
+        <v>1</v>
       </c>
       <c r="I64" s="80" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("SPARKLINE(H64, {""charttype"", ""bar""; ""max"", 100%})
@@ -5784,13 +5784,13 @@
     <row r="1022" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{929D9260-C6C1-4E11-BE39-CF09C7707A86}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{06D732F8-427B-46BD-8806-0816791D9B99}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64"/>
     </customSheetView>
-    <customSheetView guid="{B420B8FC-2E4D-450B-BFFC-2377A9C17799}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{35E16094-53CA-4DC5-89C4-A3FFE3E6B88E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$16"/>
     </customSheetView>
-    <customSheetView guid="{FB89F8EA-A7D9-40AA-B384-5355609E7DC6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E8443753-F2FC-4990-A035-9D86299DF228}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$9:$I$64">
         <filterColumn colId="1">
           <filters>
@@ -5803,6 +5803,7 @@
             <filter val="Documento de Especificación de Caso de Uso #8"/>
             <filter val="Documento de Especificación de Caso de Uso #7"/>
             <filter val="Documento de Especificación de Caso de Uso #6"/>
+            <filter val="Módulo Página Principal"/>
           </filters>
         </filterColumn>
       </autoFilter>
